--- a/Supplementary Files/Supplementary_File_S7.xlsx
+++ b/Supplementary Files/Supplementary_File_S7.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Time" sheetId="7" r:id="rId1"/>
+    <sheet name="D.Memory" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -142,17 +142,17 @@
     <t>DNA Corpus (ID)</t>
   </si>
   <si>
-    <t>Peak C.Memory</t>
-  </si>
-  <si>
     <t>Decompression Memory (MB)</t>
+  </si>
+  <si>
+    <t>Peak D.Memory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +335,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -729,9 +737,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -806,6 +811,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1159,7 +1167,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1187,28 +1195,28 @@
       <c r="H1" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1216,25 +1224,25 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0.1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>1.01</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>17.559999999999999</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="26">
         <v>5.32</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>85.36</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>10.26</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>54.76</v>
       </c>
     </row>
@@ -1242,25 +1250,25 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>0.11</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>1.59</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>19.489999999999998</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>6.03</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>89.52</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>10.27</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>147.52000000000001</v>
       </c>
     </row>
@@ -1268,25 +1276,25 @@
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0.09</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>2.76</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>55.68</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>8.1</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>105.6</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>12.73</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>323.24</v>
       </c>
     </row>
@@ -1294,25 +1302,25 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0.12</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>6.68</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>38.01</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>14.99</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>169.3</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>14.54</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>124.14</v>
       </c>
     </row>
@@ -1320,25 +1328,25 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>0.08</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>9.31</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>38.03</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>26.62</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>257</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="27">
         <v>16.37</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>259.32</v>
       </c>
     </row>
@@ -1346,25 +1354,25 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>0.08</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>13.8</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>38.06</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>35.229999999999997</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>248</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>19.61</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>498.45</v>
       </c>
     </row>
@@ -1372,25 +1380,25 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>0.09</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>24.08</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>38.01</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>54.11</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>385.6</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>34</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>1055.67</v>
       </c>
     </row>
@@ -1398,25 +1406,25 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>0.11</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>37.049999999999997</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>38.1</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>92.74</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>621</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>49.85</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="19">
         <v>859.21</v>
       </c>
     </row>
@@ -1424,25 +1432,25 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>0.11</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>334.2</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>2135</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>784.6</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>2534</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <v>371</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="28">
         <v>1837.12</v>
       </c>
     </row>
@@ -1450,87 +1458,87 @@
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>0.11</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>985.3</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>2135</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>2361</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
         <v>2879</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>989.6</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>2607.87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="30">
-        <v>0.11</v>
-      </c>
-      <c r="C14" s="32">
-        <v>985.3</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="A14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="31">
+        <v>985</v>
+      </c>
+      <c r="D14" s="30">
         <v>2135</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>2361</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="30">
         <v>2879</v>
       </c>
-      <c r="G14" s="31">
-        <v>989.6</v>
-      </c>
-      <c r="H14" s="23">
-        <v>2607.87</v>
+      <c r="G14" s="30">
+        <v>990</v>
+      </c>
+      <c r="H14" s="22">
+        <v>2608</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1538,58 +1546,58 @@
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>0.09</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>597</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>8426</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>1399</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>2379</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>632.6</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>2451</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>1084</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>2134</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>2327</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>2600</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>1106</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <v>3465</v>
       </c>
       <c r="J18" s="5"/>
@@ -1601,36 +1609,36 @@
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>42</v>
+      <c r="A19" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="7">
-        <v>1.893</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1873</v>
-      </c>
-      <c r="D19" s="23">
-        <v>2135</v>
-      </c>
-      <c r="E19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1084</v>
+      </c>
+      <c r="D19" s="22">
+        <v>8426</v>
+      </c>
+      <c r="E19" s="22">
         <v>2327</v>
       </c>
-      <c r="F19" s="23">
-        <v>2987</v>
-      </c>
-      <c r="G19" s="23">
-        <v>3376</v>
-      </c>
-      <c r="H19" s="23">
-        <v>3421</v>
-      </c>
-      <c r="I19" s="22"/>
+      <c r="F19" s="22">
+        <v>2600</v>
+      </c>
+      <c r="G19" s="22">
+        <v>1106</v>
+      </c>
+      <c r="H19" s="22">
+        <v>3465</v>
+      </c>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1638,122 +1646,122 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>4202</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>92.4</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>1.6E-2</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>49.8</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="15"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>4202</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>137.80000000000001</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>49.8</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="15"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>4202</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>131.19999999999999</v>
       </c>
       <c r="D24" s="2">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>0.28399999999999997</v>
       </c>
       <c r="F24" s="2">
         <v>49.8</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="24"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>4204</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>291</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>1.76</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <v>2.3239999999999998</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>185.67</v>
       </c>
       <c r="G25" s="2"/>
@@ -1761,25 +1769,25 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>4204</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>287</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>2.6</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="24">
         <v>2.5920000000000001</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="24">
         <v>189.34</v>
       </c>
       <c r="G26" s="2"/>
@@ -1787,25 +1795,25 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>4205</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>399</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>4.2949999999999999</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>3.3639999999999999</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="24">
         <v>346.37</v>
       </c>
       <c r="G27" s="2"/>
@@ -1813,25 +1821,25 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>4207</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>606</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>5.4</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>5.04</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="24">
         <v>454.03</v>
       </c>
       <c r="G28" s="2"/>
@@ -1839,25 +1847,25 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>4209</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>795</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>1059</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>1060</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="24">
         <v>258.70999999999998</v>
       </c>
       <c r="G29" s="2"/>
@@ -1865,25 +1873,25 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="21"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>4219</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>937</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>1062</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>1061</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>456.51</v>
       </c>
       <c r="G30" s="2"/>
@@ -1891,25 +1899,25 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="21"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>4228</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>1536</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>1603.11</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>1602</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="24">
         <v>811.71</v>
       </c>
       <c r="G31" s="2"/>
@@ -1917,125 +1925,125 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="21"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>4234</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>1803</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>1609.14</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>1608</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="24">
         <v>499.62</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="21"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>4245</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>2102</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>1619.35</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="24">
         <v>1834</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>1219.3499999999999</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="21"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>4266</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>2498</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>1638.58</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="24">
         <v>1639</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="24">
         <v>1647.06</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="21"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>4349</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <v>6041</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>2775.77</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="24">
         <v>2878</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="24">
         <v>2854.42</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="21"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="24">
         <v>4393</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="24">
         <v>7106</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="24">
         <v>3382.65</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="24">
         <v>3375</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="24">
         <v>3232</v>
       </c>
       <c r="H36" s="3"/>
@@ -2045,25 +2053,25 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="18">
+      <c r="A37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="17">
         <v>4393</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>7106</v>
       </c>
-      <c r="D37" s="18">
-        <v>3382.65</v>
-      </c>
-      <c r="E37" s="16">
+      <c r="D37" s="17">
+        <v>3383</v>
+      </c>
+      <c r="E37" s="15">
         <v>3375</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>3232</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
